--- a/iselUssSyncV2/OutputWSL/20220517_1415_D60L474W90Q7.4U0.18H52G2_S_DATA.xlsx
+++ b/iselUssSyncV2/OutputWSL/20220517_1415_D60L474W90Q7.4U0.18H52G2_S_DATA.xlsx
@@ -127,7 +127,7 @@
     <t>caseStr</t>
   </si>
   <si>
-    <t>1</t>
+    <t>kA</t>
   </si>
   <si>
     <t>Ftotal</t>
@@ -351,14 +351,16 @@
         <v>0.051446305083773639</v>
       </c>
       <c r="G2" s="0">
-        <v>0.056239999999999943</v>
-      </c>
-      <c r="H2" s="0"/>
+        <v>0.06522353174603171</v>
+      </c>
+      <c r="H2" s="0">
+        <v>0.0032235317460317108</v>
+      </c>
       <c r="I2" s="0">
         <v>0.022891566731695991</v>
       </c>
       <c r="J2" s="0">
-        <v>0.019628611111111111</v>
+        <v>0.016931957724656929</v>
       </c>
       <c r="K2" s="0">
         <v>0.002</v>
@@ -406,7 +408,7 @@
         <v>0.25629423741535123</v>
       </c>
       <c r="Z2" s="0">
-        <v>0.67871891295781261</v>
+        <v>0.84715629853633423</v>
       </c>
       <c r="AA2" s="0">
         <v>0.18207153045450686</v>
@@ -426,21 +428,17 @@
       <c r="AF2" s="0">
         <v>2.1678770094469324</v>
       </c>
-      <c r="AG2" s="0">
-        <v>9.3393092868155545</v>
-      </c>
+      <c r="AG2" s="0"/>
       <c r="AH2" s="0">
         <v>4.9706364045726978</v>
       </c>
       <c r="AI2" s="0">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="AJ2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="AK2" s="0">
-        <v>11.507186296262487</v>
-      </c>
+      <c r="AK2" s="0"/>
     </row>
   </sheetData>
 </worksheet>
